--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152312.874568057</v>
+        <v>1148301.071835959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -1375,16 +1375,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>71.31660305952569</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>33.19616726431556</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -1423,10 +1423,10 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.486043837284646</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.11608753039114</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -1587,7 +1587,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>373.5887895984958</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7646952433536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>171.5577467618252</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>29.6281453496817</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>168.0132652396199</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>38.16259584894219</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.22923743588498</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.267814325145046</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>131.2031034770989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.711133269999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.07231000234304</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>203.959478879399</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -2380,10 +2380,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>95.14564290930542</v>
+        <v>372.9118018421332</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I25" t="n">
-        <v>71.96559361603957</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>39.10839631573317</v>
       </c>
       <c r="V26" t="n">
-        <v>324.6928419575239</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470647719</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899815</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>164.2289473119879</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>369.8004725947878</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3339849899815</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>357.3083453980416</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>56.8843391259274</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>308.579610187844</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
-        <v>14.94015140298402</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>76.47881201445321</v>
+        <v>33.00099667026362</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>142.9775754080175</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>47.31053887400638</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.12173828816464</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9353216629393</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>71.96559361603954</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>126.7666119332585</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>371.6401324079421</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>2.497922066406431</v>
+        <v>35.91582525384103</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>104.5745561299568</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>321.4425785919041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7030512222169</v>
@@ -4155,7 +4155,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>93.13285065277921</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>98.68849319413027</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.422259516197</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="C11" t="n">
-        <v>1240.521529529497</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="D11" t="n">
-        <v>817.2289087144973</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="E11" t="n">
-        <v>745.1919359270976</v>
+        <v>755.9311175839867</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G11" t="n">
         <v>320.0677541164978</v>
@@ -5038,19 +5038,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072051</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.069171561001</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848328</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5071,22 +5071,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.14225834845</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.14225834845</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.14225834845</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516197</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.422259516197</v>
+        <v>1608.808787422829</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M12" t="n">
         <v>896.8821538038977</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.1010292829092</v>
+        <v>523.2182894146174</v>
       </c>
       <c r="C13" t="n">
-        <v>423.1010292829092</v>
+        <v>523.2182894146174</v>
       </c>
       <c r="D13" t="n">
-        <v>423.1010292829092</v>
+        <v>523.2182894146174</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>523.2182894146174</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574696</v>
+        <v>351.3565151891778</v>
       </c>
       <c r="G13" t="n">
         <v>251.2392550574696</v>
@@ -5202,13 +5202,13 @@
         <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>353.897341839383</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>698.242083603971</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N13" t="n">
         <v>1210.770261587371</v>
@@ -5235,16 +5235,16 @@
         <v>1457.143326818623</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426652</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="W13" t="n">
-        <v>900.5794555991647</v>
+        <v>1182.290922991136</v>
       </c>
       <c r="X13" t="n">
-        <v>658.0155590449698</v>
+        <v>939.7270264369409</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.6727907347118</v>
+        <v>713.384258126683</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.9684841031977</v>
+        <v>1247.573895224666</v>
       </c>
       <c r="C14" t="n">
-        <v>320.0677541164978</v>
+        <v>870.211481488812</v>
       </c>
       <c r="D14" t="n">
-        <v>320.0677541164978</v>
+        <v>870.211481488812</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0677541164978</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072042</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>1879.576579873195</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>1522.087164999444</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W14" t="n">
-        <v>1522.087164999444</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X14" t="n">
-        <v>1110.367166167191</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.9684841031977</v>
+        <v>1667.422259516196</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745215</v>
+        <v>86.441696141864</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.4200240257001</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C16" t="n">
-        <v>417.447460904616</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D16" t="n">
-        <v>417.447460904616</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2392550574696</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F16" t="n">
-        <v>251.2392550574696</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>652.3645187823272</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>768.3405774192806</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.770261587371</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.480399803424</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.345061429706</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.345061429706</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.492657602219</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.928761048024</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.5859927377658</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1741.379565094871</v>
+        <v>508.2042248976835</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.669196165962</v>
+        <v>81.3034949109836</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.376575350962</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
         <v>1626.510864636164</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W17" t="n">
-        <v>1741.379565094871</v>
+        <v>1325.261493775046</v>
       </c>
       <c r="X17" t="n">
-        <v>1741.379565094871</v>
+        <v>913.5414949427932</v>
       </c>
       <c r="Y17" t="n">
-        <v>1741.379565094871</v>
+        <v>508.2042248976835</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.6727907347118</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C19" t="n">
-        <v>259.7002276136278</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="D19" t="n">
-        <v>259.7002276136278</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="E19" t="n">
-        <v>93.49202176648137</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589048</v>
+        <v>52.1168469071481</v>
       </c>
       <c r="G19" t="n">
         <v>42.75541829589048</v>
@@ -5676,22 +5676,22 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K19" t="n">
-        <v>321.3980373970705</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8925275891185</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M19" t="n">
-        <v>546.868586226072</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
@@ -5700,25 +5700,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.6561482825904</v>
+        <v>854.9280228494245</v>
       </c>
       <c r="C20" t="n">
-        <v>42.75541829589048</v>
+        <v>854.9280228494245</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
         <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848321</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
         <v>1626.510864636164</v>
@@ -5773,31 +5773,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U20" t="n">
-        <v>2079.14225834845</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V20" t="n">
-        <v>2079.14225834845</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W20" t="n">
-        <v>1682.750908648796</v>
+        <v>854.9280228494245</v>
       </c>
       <c r="X20" t="n">
-        <v>1271.030909816544</v>
+        <v>854.9280228494245</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.5045125741204</v>
+        <v>854.9280228494245</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.0845988131532</v>
+        <v>716.1147343627898</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1120356920692</v>
+        <v>544.1421712417058</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1120356920692</v>
+        <v>380.8253983684765</v>
       </c>
       <c r="E22" t="n">
-        <v>208.1120356920692</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F22" t="n">
-        <v>208.1120356920692</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L22" t="n">
-        <v>652.3645187823272</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.462820193972</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N22" t="n">
-        <v>1437.099088512676</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1931.751239158766</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1650.039771766795</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1375.187367939308</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>1132.623471385113</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>906.2807030748554</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.407938699469</v>
+        <v>1740.404424113326</v>
       </c>
       <c r="C23" t="n">
-        <v>762.5072087127692</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="D23" t="n">
-        <v>762.5072087127692</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>762.5072087127692</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
         <v>631.2805511005022</v>
@@ -5995,46 +5995,46 @@
         <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.62967157813</v>
+        <v>1575.348819368406</v>
       </c>
       <c r="M23" t="n">
-        <v>1427.002522858947</v>
+        <v>1883.721670649223</v>
       </c>
       <c r="N23" t="n">
-        <v>2170.377324993276</v>
+        <v>2197.834060919215</v>
       </c>
       <c r="O23" t="n">
-        <v>2464.8177679938</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P23" t="n">
         <v>2737.9661972607</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2914.642355556174</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
         <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>2732.766761627732</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.083011832651</v>
+        <v>2117.083011832652</v>
       </c>
       <c r="W23" t="n">
-        <v>2020.976301823252</v>
+        <v>1740.404424113326</v>
       </c>
       <c r="X23" t="n">
-        <v>1609.256302990999</v>
+        <v>1740.404424113326</v>
       </c>
       <c r="Y23" t="n">
-        <v>1609.256302990999</v>
+        <v>1740.404424113326</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6129,10 +6129,10 @@
         <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
         <v>433.9111452393198</v>
@@ -6144,40 +6144,40 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>1925.160403493046</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2405.31675056438</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2802.642500785834</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.407938699469</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="C26" t="n">
-        <v>762.5072087127692</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D26" t="n">
-        <v>762.5072087127692</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E26" t="n">
-        <v>762.5072087127692</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>701.6597934330168</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L26" t="n">
-        <v>974.1758019568488</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M26" t="n">
-        <v>1282.548653237666</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N26" t="n">
-        <v>1596.661043507657</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O26" t="n">
         <v>2340.035845641986</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.340219156767</v>
+        <v>2905.40246701007</v>
       </c>
       <c r="V26" t="n">
-        <v>2417.367651522905</v>
+        <v>2547.913052136319</v>
       </c>
       <c r="W26" t="n">
-        <v>2020.976301823252</v>
+        <v>2151.521702436666</v>
       </c>
       <c r="X26" t="n">
-        <v>1609.256302990999</v>
+        <v>1739.801703604413</v>
       </c>
       <c r="Y26" t="n">
-        <v>1609.256302990999</v>
+        <v>1334.464433559304</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6408,13 +6408,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>887.5267542744834</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="C29" t="n">
-        <v>887.5267542744834</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D29" t="n">
-        <v>887.5267542744834</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E29" t="n">
-        <v>887.5267542744834</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G29" t="n">
         <v>60.07069108156194</v>
@@ -6460,31 +6460,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>443.9121332502919</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466719</v>
+        <v>658.7452452040877</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705038</v>
+        <v>931.2612537279194</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1239.634105008736</v>
       </c>
       <c r="N29" t="n">
-        <v>1778.64810628565</v>
+        <v>1553.746495278728</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>1848.186938279251</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6496,19 +6496,19 @@
         <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.711562710693</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.823737143029</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W29" t="n">
-        <v>2124.432387443376</v>
+        <v>2571.370066728196</v>
       </c>
       <c r="X29" t="n">
-        <v>1712.712388611123</v>
+        <v>2159.650067895944</v>
       </c>
       <c r="Y29" t="n">
-        <v>1307.375118566013</v>
+        <v>1754.312797850834</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,16 +6600,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.297898185135</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393197</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G31" t="n">
         <v>268.5545278431409</v>
@@ -6621,19 +6621,19 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K31" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O31" t="n">
         <v>2405.316750564379</v>
@@ -6648,7 +6648,7 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
@@ -6666,7 +6666,7 @@
         <v>1523.779198328542</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1246.612713882966</v>
+        <v>1672.843806961639</v>
       </c>
       <c r="C32" t="n">
-        <v>885.6951932788834</v>
+        <v>1245.943076974939</v>
       </c>
       <c r="D32" t="n">
-        <v>462.4025724638836</v>
+        <v>1245.943076974939</v>
       </c>
       <c r="E32" t="n">
-        <v>462.4025724638836</v>
+        <v>819.9661371227968</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4025724638836</v>
+        <v>394.841955312197</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,25 +6700,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>1146.086407504068</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1454.459258784885</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
@@ -6742,10 +6742,10 @@
         <v>2078.181077006749</v>
       </c>
       <c r="X32" t="n">
-        <v>1666.461078174496</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="Y32" t="n">
-        <v>1666.461078174496</v>
+        <v>1672.843806961639</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283256</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
         <v>1272.27799250867</v>
@@ -6840,10 +6840,10 @@
         <v>935.2978981851352</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.981125311906</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
@@ -6861,10 +6861,10 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>509.0007335470286</v>
+        <v>397.2373026266571</v>
       </c>
       <c r="L34" t="n">
-        <v>994.8841173302415</v>
+        <v>883.12068640987</v>
       </c>
       <c r="M34" t="n">
         <v>1412.632225509645</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.6561482825904</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="C35" t="n">
-        <v>42.75541829589048</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="D35" t="n">
-        <v>42.75541829589048</v>
+        <v>1181.908057436129</v>
       </c>
       <c r="E35" t="n">
-        <v>42.75541829589048</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G35" t="n">
         <v>42.75541829589048</v>
@@ -6934,31 +6934,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072053</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848329</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794524</v>
@@ -6967,22 +6967,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2064.051196325233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>2064.051196325233</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.561781451483</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.561781451483</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.84178261923</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.5045125741204</v>
+        <v>1608.808787422829</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>658.0155590449698</v>
+        <v>248.0623214879478</v>
       </c>
       <c r="C37" t="n">
-        <v>658.0155590449698</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="D37" t="n">
-        <v>494.6987861717405</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="E37" t="n">
-        <v>328.490580324594</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="F37" t="n">
-        <v>328.490580324594</v>
+        <v>76.08975836686383</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
         <v>42.75541829589048</v>
@@ -7098,49 +7098,49 @@
         <v>162.634922133069</v>
       </c>
       <c r="K37" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L37" t="n">
-        <v>582.2660249670175</v>
+        <v>828.925450430999</v>
       </c>
       <c r="M37" t="n">
-        <v>698.242083603971</v>
+        <v>944.9015090679525</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.770261587371</v>
+        <v>1059.396764209473</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y37" t="n">
-        <v>658.0155590449698</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1717.922550502994</v>
+        <v>1197.088788590576</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.500757161562</v>
+        <v>770.1880586038765</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.500757161562</v>
+        <v>770.1880586038765</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.523817309419</v>
+        <v>770.1880586038765</v>
       </c>
       <c r="F38" t="n">
         <v>722.3996354988195</v>
@@ -7171,10 +7171,10 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
         <v>437.0691715610005</v>
@@ -7201,25 +7201,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794524</v>
+        <v>1197.088788590576</v>
       </c>
       <c r="Y38" t="n">
-        <v>2137.770914794524</v>
+        <v>1197.088788590576</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E39" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F39" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>385.1054302494206</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J39" t="n">
-        <v>464.1447550896847</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K39" t="n">
-        <v>611.9357094579329</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L39" t="n">
-        <v>818.1862990803327</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M39" t="n">
-        <v>1062.016500035834</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N39" t="n">
-        <v>1314.641565670029</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.575623697827</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.016277348648</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q39" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R39" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S39" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T39" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U39" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V39" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W39" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.955188520548</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C40" t="n">
-        <v>917.9826253994637</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6658525262344</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="E40" t="n">
-        <v>588.4576466790879</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="F40" t="n">
-        <v>416.5958724536483</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2392550574696</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H40" t="n">
         <v>115.4479370999708</v>
@@ -7332,22 +7332,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K40" t="n">
-        <v>458.9956455541967</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>944.8790293374096</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.977330749054</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658705</v>
+        <v>1796.445020945502</v>
       </c>
       <c r="P40" t="n">
         <v>2088.252358880159</v>
@@ -7362,22 +7362,22 @@
         <v>2137.770914794524</v>
       </c>
       <c r="T40" t="n">
-        <v>2137.770914794524</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U40" t="n">
-        <v>2137.770914794524</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V40" t="n">
-        <v>1856.059447402553</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.207043575066</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X40" t="n">
-        <v>1338.643147020871</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y40" t="n">
-        <v>1112.300378710613</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.3996354988195</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3996354988195</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D41" t="n">
-        <v>722.3996354988195</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E41" t="n">
-        <v>722.3996354988195</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F41" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610007</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344158</v>
+        <v>1951.095175587582</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344158</v>
+        <v>1692.900840666253</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470408</v>
+        <v>1692.900840666253</v>
       </c>
       <c r="W41" t="n">
-        <v>1134.119634331072</v>
+        <v>1296.5094909666</v>
       </c>
       <c r="X41" t="n">
-        <v>722.3996354988195</v>
+        <v>1296.5094909666</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.3996354988195</v>
+        <v>891.17222092149</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.3592258501333</v>
+        <v>954.3720256626243</v>
       </c>
       <c r="C43" t="n">
-        <v>344.3866627290492</v>
+        <v>782.3994625415403</v>
       </c>
       <c r="D43" t="n">
-        <v>181.06988985582</v>
+        <v>619.082689668311</v>
       </c>
       <c r="E43" t="n">
-        <v>181.06988985582</v>
+        <v>452.8744838211645</v>
       </c>
       <c r="F43" t="n">
-        <v>178.5467362533892</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G43" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L43" t="n">
-        <v>977.5688445445701</v>
+        <v>523.2582343051841</v>
       </c>
       <c r="M43" t="n">
-        <v>1506.667145956215</v>
+        <v>1052.356535716829</v>
       </c>
       <c r="N43" t="n">
-        <v>1621.162401097735</v>
+        <v>1372.15296878278</v>
       </c>
       <c r="O43" t="n">
         <v>1852.309315854113</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
         <v>2131.215415329222</v>
@@ -7599,22 +7599,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818623</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="V43" t="n">
-        <v>1175.431859426652</v>
+        <v>1455.567197800369</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.431859426652</v>
+        <v>1180.714793972882</v>
       </c>
       <c r="X43" t="n">
-        <v>932.8679628724568</v>
+        <v>1180.714793972882</v>
       </c>
       <c r="Y43" t="n">
-        <v>706.5251945621989</v>
+        <v>954.3720256626243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.8796001064903</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C44" t="n">
-        <v>467.8796001064903</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D44" t="n">
-        <v>467.8796001064903</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
@@ -7666,34 +7666,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344158</v>
+        <v>1973.511393570715</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.808787422829</v>
+        <v>1715.317058649386</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.808787422829</v>
+        <v>1715.317058649386</v>
       </c>
       <c r="W44" t="n">
-        <v>1212.417437723176</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.417437723176</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.7279643980203</v>
+        <v>1318.925708949733</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>621.1314488097172</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K45" t="n">
-        <v>768.9224031779654</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L45" t="n">
-        <v>975.1729928003651</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.003193755867</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1471.628259390062</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1699.120123412921</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.560777063743</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1990.400232554563</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.262669716467</v>
+        <v>588.5684355747323</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2901065953833</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="D46" t="n">
-        <v>681.9733337221541</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E46" t="n">
-        <v>515.7651278750076</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F46" t="n">
-        <v>343.903353649568</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>306.3087174642596</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>415.8032076563076</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M46" t="n">
-        <v>944.9015090679522</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209472</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280806</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T46" t="n">
         <v>1898.278526888668</v>
       </c>
       <c r="U46" t="n">
-        <v>1618.14318851495</v>
+        <v>1804.204940370709</v>
       </c>
       <c r="V46" t="n">
-        <v>1618.14318851495</v>
+        <v>1522.493472978738</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.290784687463</v>
+        <v>1247.641069151251</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.605438026725</v>
+        <v>1005.077172597056</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.262669716467</v>
+        <v>778.7344042867981</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8850,16 +8850,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>230.6754375026611</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>2.757680064977436</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K15" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9096,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>331.246898006637</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>231.3726567572035</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>156.4817195938953</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N22" t="n">
-        <v>142.5666799769531</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>209.3311033197066</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3324725154308</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>433.5983958225632</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.73407669286644</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>346.0072518373879</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>289.1611029510198</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>249.7730798851969</v>
+        <v>307.5560500126509</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>453.4690496301063</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>268.6251448311428</v>
+        <v>268.6251448311431</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>206.4250513711272</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.5983958225632</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>423.420156195519</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10278,13 +10278,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>347.3339495263157</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>423.4201561955192</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>461.3324725154301</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814653</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,16 +10746,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>230.6754375026611</v>
+        <v>230.0459590682767</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>216.7603978857188</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,13 +10992,13 @@
         <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>209.3311033197072</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>207.3749271963949</v>
       </c>
       <c r="O43" t="n">
-        <v>129.9928201901496</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>158.5724178990228</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>141.2399822880257</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>231.3726567572035</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>350.4005673940953</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>387.6767727281782</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.7782651876603</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>64.5869636918258</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>49.04293308833707</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.51920210130498</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.53971726497184</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>249.2662073683697</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>254.6184574472129</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>380.8970987579075</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>119.9139190473002</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>154.4352368970719</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>287.8565911297508</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.57276407465952</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.1919990226019</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>73.37450611058193</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>297.2817932933511</v>
+        <v>19.51563436052334</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>216.5039952563828</v>
       </c>
       <c r="V26" t="n">
-        <v>29.2216787674891</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24685,16 +24685,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>189.6855734130251</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>22.62696360786879</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>65.32337728879122</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>341.424223442571</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>113.137560265777</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0775932412642</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>87.22423920776373</v>
+        <v>130.7020545519533</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>279.6541472788154</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>373.5624011184873</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,7 +25456,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.1425707367804</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.20783482024589</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>83.25113271098978</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>20.78730379471449</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>167.6452344167787</v>
+        <v>134.2273312293441</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.3085625684984</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>105.4431885142914</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>79.84131875275449</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>184.2011343372017</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>141.4497643945226</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335870.2560266636</v>
+        <v>335870.2560266635</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335870.2560266636</v>
+        <v>335870.2560266635</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456318.1998136255</v>
+        <v>456318.1998136257</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456318.1998136256</v>
+        <v>456318.1998136255</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456318.1998136256</v>
+        <v>456318.1998136257</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456318.1998136256</v>
+        <v>456318.1998136257</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335870.2560266636</v>
+        <v>335870.2560266635</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335870.2560266635</v>
+        <v>335870.2560266636</v>
       </c>
     </row>
     <row r="15">
@@ -26319,19 +26319,19 @@
         <v>473349.6994154218</v>
       </c>
       <c r="D2" t="n">
-        <v>473349.6994154218</v>
+        <v>473349.6994154217</v>
       </c>
       <c r="E2" t="n">
-        <v>281477.9391068872</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="F2" t="n">
-        <v>281477.9391068872</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="G2" t="n">
-        <v>281477.9391068872</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="H2" t="n">
-        <v>281477.9391068871</v>
+        <v>281477.939106887</v>
       </c>
       <c r="I2" t="n">
         <v>353269.652172617</v>
@@ -26340,22 +26340,22 @@
         <v>353269.6521726171</v>
       </c>
       <c r="K2" t="n">
-        <v>353269.652172617</v>
+        <v>353269.6521726171</v>
       </c>
       <c r="L2" t="n">
         <v>353269.6521726171</v>
       </c>
       <c r="M2" t="n">
+        <v>281477.9391068872</v>
+      </c>
+      <c r="N2" t="n">
+        <v>281477.9391068872</v>
+      </c>
+      <c r="O2" t="n">
+        <v>281477.9391068873</v>
+      </c>
+      <c r="P2" t="n">
         <v>281477.9391068871</v>
-      </c>
-      <c r="N2" t="n">
-        <v>281477.9391068871</v>
-      </c>
-      <c r="O2" t="n">
-        <v>281477.939106887</v>
-      </c>
-      <c r="P2" t="n">
-        <v>281477.9391068872</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048187</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160775</v>
+        <v>79247.32527160773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>20716.52783166094</v>
       </c>
       <c r="F4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166093</v>
       </c>
       <c r="G4" t="n">
         <v>20716.52783166094</v>
@@ -26438,28 +26438,28 @@
         <v>20716.52783166094</v>
       </c>
       <c r="I4" t="n">
+        <v>60803.9134097276</v>
+      </c>
+      <c r="J4" t="n">
         <v>60803.91340972755</v>
       </c>
-      <c r="J4" t="n">
-        <v>60803.91340972753</v>
-      </c>
       <c r="K4" t="n">
-        <v>60803.91340972755</v>
+        <v>60803.91340972758</v>
       </c>
       <c r="L4" t="n">
-        <v>60803.91340972755</v>
+        <v>60803.91340972757</v>
       </c>
       <c r="M4" t="n">
+        <v>20716.52783166098</v>
+      </c>
+      <c r="N4" t="n">
         <v>20716.52783166095</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20716.52783166094</v>
       </c>
       <c r="O4" t="n">
         <v>20716.52783166094</v>
       </c>
       <c r="P4" t="n">
-        <v>20716.52783166095</v>
+        <v>20716.52783166094</v>
       </c>
     </row>
     <row r="5">
@@ -26481,16 +26481,16 @@
         <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116983.0211332385</v>
+        <v>116961.3074917421</v>
       </c>
       <c r="C6" t="n">
-        <v>116983.0211332385</v>
+        <v>116961.3074917421</v>
       </c>
       <c r="D6" t="n">
-        <v>116983.0211332386</v>
+        <v>116961.307491742</v>
       </c>
       <c r="E6" t="n">
-        <v>-339197.9590635286</v>
+        <v>-339801.1022817175</v>
       </c>
       <c r="F6" t="n">
-        <v>217491.696858725</v>
+        <v>216888.5536405361</v>
       </c>
       <c r="G6" t="n">
-        <v>217491.696858725</v>
+        <v>216888.5536405362</v>
       </c>
       <c r="H6" t="n">
-        <v>217491.696858725</v>
+        <v>216888.5536405359</v>
       </c>
       <c r="I6" t="n">
-        <v>178480.2338487962</v>
+        <v>178094.6412762608</v>
       </c>
       <c r="J6" t="n">
-        <v>236036.4170292781</v>
+        <v>235650.8244567428</v>
       </c>
       <c r="K6" t="n">
-        <v>236036.4170292779</v>
+        <v>235650.8244567428</v>
       </c>
       <c r="L6" t="n">
-        <v>236036.417029278</v>
+        <v>235650.8244567428</v>
       </c>
       <c r="M6" t="n">
-        <v>138244.3715871172</v>
+        <v>137641.2283689284</v>
       </c>
       <c r="N6" t="n">
-        <v>217491.696858725</v>
+        <v>216888.5536405362</v>
       </c>
       <c r="O6" t="n">
-        <v>217491.6968587248</v>
+        <v>216888.5536405362</v>
       </c>
       <c r="P6" t="n">
-        <v>217491.696858725</v>
+        <v>216888.5536405361</v>
       </c>
     </row>
   </sheetData>
@@ -26749,22 +26749,22 @@
         <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
+        <v>494.2934179644262</v>
+      </c>
+      <c r="G3" t="n">
         <v>494.2934179644261</v>
       </c>
-      <c r="G3" t="n">
-        <v>494.2934179644262</v>
-      </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
         <v>494.2934179644261</v>
@@ -26801,16 +26801,16 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="G4" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26828,10 +26828,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208937</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777377</v>
+        <v>318.0018188777376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M14" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,7 +32025,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T14" t="n">
         <v>8.698570601564924</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32107,7 +32107,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U15" t="n">
         <v>0.06994718178741882</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H16" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32174,7 +32174,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q16" t="n">
         <v>74.63830611262834</v>
@@ -32186,10 +32186,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,19 +32241,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596218</v>
@@ -32262,13 +32262,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32335,19 +32335,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32557,34 +32557,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32645,25 +32645,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,19 +32715,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
         <v>214.5854405596218</v>
@@ -32736,13 +32736,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32809,19 +32809,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,19 +32952,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
         <v>214.5854405596218</v>
@@ -32973,13 +32973,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33046,19 +33046,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,19 +33189,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
         <v>214.5854405596218</v>
@@ -33210,13 +33210,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33283,19 +33283,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33432,13 +33432,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
         <v>214.5854405596218</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33520,10 +33520,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
@@ -33532,7 +33532,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33599,13 +33599,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -33651,10 +33651,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33669,13 +33669,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
         <v>214.5854405596218</v>
@@ -33687,10 +33687,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
@@ -33769,7 +33769,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33836,13 +33836,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
         <v>3.80849026956197</v>
@@ -33888,10 +33888,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33906,13 +33906,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33994,10 +33994,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34073,13 +34073,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -34125,10 +34125,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34143,13 +34143,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O41" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596218</v>
@@ -34161,10 +34161,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34231,10 +34231,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
@@ -34243,7 +34243,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34310,13 +34310,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
         <v>3.80849026956197</v>
@@ -34371,7 +34371,7 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824826</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
         <v>313.5807379112409</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35497,7 +35497,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>404.8655501773066</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
         <v>255.1768339739348</v>
@@ -35570,16 +35570,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>347.8229714793817</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>118.4094529351998</v>
       </c>
       <c r="O13" t="n">
         <v>485.006411183165</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N14" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K15" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392516</v>
@@ -35749,7 +35749,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
         <v>490.7912967507202</v>
@@ -35816,16 +35816,16 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
-        <v>446.8986708768593</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>334.8615686442037</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690279</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K19" t="n">
-        <v>239.0755877901237</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>511.3862575357972</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38160322116931</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K22" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
-        <v>258.2184528471755</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>736.6011679940488</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>275.9075043099997</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.062272217937</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>456.6077469808707</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>404.8128758212422</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>466.7762232728695</v>
+        <v>524.5591934003235</v>
       </c>
       <c r="L26" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
-        <v>372.114056718143</v>
+        <v>372.1140567181432</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>345.6585028723073</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>720.834745084937</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>511.3862575357972</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
-        <v>485.006411183165</v>
+        <v>450.8228614133158</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>698.6888516741371</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>639.7932384704538</v>
       </c>
       <c r="R32" t="n">
         <v>89.79009951709452</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>321.2365787886769</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37159,19 +37159,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>520.269959231448</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427153</v>
+        <v>219.4819269776937</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011809</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709541</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37399,16 +37399,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L37" t="n">
-        <v>341.2759326461439</v>
+        <v>340.6464542117595</v>
       </c>
       <c r="M37" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N37" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
@@ -37484,7 +37484,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
@@ -37548,22 +37548,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
         <v>89.79009951709452</v>
@@ -37621,7 +37621,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37636,16 +37636,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>494.8828868967648</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
-        <v>299.3542660819472</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>294.7548868026834</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
@@ -37785,22 +37785,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171339</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R41" t="n">
         <v>89.79009951709452</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37873,16 +37873,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M43" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>323.0267000666173</v>
       </c>
       <c r="O43" t="n">
-        <v>233.4817320771497</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q43" t="n">
         <v>202.9212659517818</v>
@@ -38019,7 +38019,7 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876733</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
         <v>275.268695478618</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4101197578753</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38104,7 +38104,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>381.1713018496178</v>
       </c>
       <c r="N45" t="n">
         <v>255.1768339739348</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>223.833850484254</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>334.8615686442037</v>
       </c>
       <c r="P46" t="n">
         <v>401.3391416378323</v>
